--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1202,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1242,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2">
-        <v>-0.1</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1262,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1282,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1302,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1342,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>-0.1</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1362,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="2">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="14" spans="1:6">

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -27,29 +27,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
-  <si>
-    <t>strategy</t>
-  </si>
-  <si>
-    <t>fund_code</t>
-  </si>
-  <si>
-    <t>fund_name</t>
-  </si>
-  <si>
-    <t>benchmark_code</t>
-  </si>
-  <si>
-    <t>benchmark_name</t>
-  </si>
-  <si>
-    <t>threshold</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+  <si>
+    <t>大类策略</t>
+  </si>
+  <si>
+    <t>细分策略</t>
+  </si>
+  <si>
+    <t>基金代码</t>
+  </si>
+  <si>
+    <t>基金名称</t>
+  </si>
+  <si>
+    <t>基准代码</t>
+  </si>
+  <si>
+    <t>基准名称</t>
+  </si>
+  <si>
+    <t>最大回撤阈值</t>
   </si>
   <si>
     <t>主观CTA</t>
   </si>
   <si>
+    <t>复合</t>
+  </si>
+  <si>
     <t>SM6151</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>南华农产品指数</t>
   </si>
   <si>
+    <t>趋势</t>
+  </si>
+  <si>
     <t>SGC034</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
     <t>量化CTA</t>
   </si>
   <si>
+    <t>截面</t>
+  </si>
+  <si>
     <t>SS0221</t>
   </si>
   <si>
@@ -134,6 +146,12 @@
     <t>远澜云杉</t>
   </si>
   <si>
+    <t>SW8015</t>
+  </si>
+  <si>
+    <t>旭诺CTA三号</t>
+  </si>
+  <si>
     <t>套利</t>
   </si>
   <si>
@@ -147,6 +165,12 @@
   </si>
   <si>
     <t>中证综合债</t>
+  </si>
+  <si>
+    <t>CU345B</t>
+  </si>
+  <si>
+    <t>旌安1号B</t>
   </si>
 </sst>
 </file>
@@ -159,13 +183,24 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -630,145 +665,152 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1090,29 +1132,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.4416666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.4416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.2166666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="1" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1124,264 +1167,352 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="G6" s="2">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-0.1</v>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="2">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="2">
         <v>-0.03</v>
       </c>
     </row>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
   <si>
     <t>大类策略</t>
   </si>
@@ -158,6 +158,48 @@
   </si>
   <si>
     <t>旌安1号</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>SXV601</t>
+  </si>
+  <si>
+    <t>顽岩金选稳健1号</t>
+  </si>
+  <si>
+    <t>市场中性</t>
+  </si>
+  <si>
+    <t>宽德中性</t>
+  </si>
+  <si>
+    <t>STB980</t>
+  </si>
+  <si>
+    <t>绰瑞汇海9号</t>
+  </si>
+  <si>
+    <t>排版</t>
+  </si>
+  <si>
+    <t>SB9968</t>
+  </si>
+  <si>
+    <t>嘉鸿星火2号B</t>
+  </si>
+  <si>
+    <t>量化期货</t>
+  </si>
+  <si>
+    <t>SVZ009</t>
+  </si>
+  <si>
+    <t>铭跃行远均衡一号</t>
   </si>
 </sst>
 </file>
@@ -180,9 +222,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -213,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,11 +263,14 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,19 +580,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -577,7 +622,7 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -600,7 +645,7 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -744,7 +789,7 @@
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -790,7 +835,7 @@
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -916,6 +961,144 @@
       </c>
       <c r="G16" s="2">
         <v>-0.03</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
+      <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="5">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="5">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="5">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="5">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
+      <c r="A21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="5">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>大类策略</t>
   </si>
@@ -158,48 +158,6 @@
   </si>
   <si>
     <t>旌安1号</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>T0</t>
-  </si>
-  <si>
-    <t>SXV601</t>
-  </si>
-  <si>
-    <t>顽岩金选稳健1号</t>
-  </si>
-  <si>
-    <t>市场中性</t>
-  </si>
-  <si>
-    <t>宽德中性</t>
-  </si>
-  <si>
-    <t>STB980</t>
-  </si>
-  <si>
-    <t>绰瑞汇海9号</t>
-  </si>
-  <si>
-    <t>排版</t>
-  </si>
-  <si>
-    <t>SB9968</t>
-  </si>
-  <si>
-    <t>嘉鸿星火2号B</t>
-  </si>
-  <si>
-    <t>量化期货</t>
-  </si>
-  <si>
-    <t>SVZ009</t>
-  </si>
-  <si>
-    <t>铭跃行远均衡一号</t>
   </si>
 </sst>
 </file>
@@ -207,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,12 +177,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -255,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,12 +217,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,19 +526,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -963,144 +909,6 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
-      <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="5">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
-      <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="5">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
-      <c r="A19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="5">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
-      <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="5">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
-      <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="5">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-0.1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\VScode\Private_nav_research\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791FCFEE-F99C-4547-AAD3-F476FA708124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>大类策略</t>
   </si>
@@ -158,18 +164,29 @@
   </si>
   <si>
     <t>旌安1号</t>
+  </si>
+  <si>
+    <t>期权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国元期货安睿二号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SS9088</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -178,6 +195,13 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,31 +232,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -243,10 +270,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -284,71 +311,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,7 +403,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -399,11 +426,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -412,13 +439,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -428,7 +455,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -437,7 +464,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -446,7 +473,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -454,10 +481,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -522,26 +549,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -587,7 +614,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -610,7 +637,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -633,7 +660,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -656,7 +683,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -679,7 +706,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -702,7 +729,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -725,7 +752,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -748,7 +775,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -771,7 +798,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -794,7 +821,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -817,7 +844,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -840,7 +867,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -863,7 +890,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -886,7 +913,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -909,7 +936,31 @@
         <v>-0.03</v>
       </c>
     </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-0.03</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\VScode\Private_nav_research\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791FCFEE-F99C-4547-AAD3-F476FA708124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>大类策略</t>
   </si>
@@ -167,52 +174,388 @@
   </si>
   <si>
     <t>期权</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>国元期货安睿二号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> SS9088</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STB980</t>
+  </si>
+  <si>
+    <t>绰瑞汇海9号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -221,45 +564,324 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -544,423 +1166,445 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8833333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="4">
         <v>-0.03</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t>大类策略</t>
   </si>
@@ -50,9 +50,27 @@
     <t>最大回撤阈值</t>
   </si>
   <si>
+    <t>杠杆率</t>
+  </si>
+  <si>
     <t>主观CTA</t>
   </si>
   <si>
+    <t>时序</t>
+  </si>
+  <si>
+    <t>SGC034</t>
+  </si>
+  <si>
+    <t>济海实恒对冲二号</t>
+  </si>
+  <si>
+    <t>NH0100.NHF</t>
+  </si>
+  <si>
+    <t>南华商品指数</t>
+  </si>
+  <si>
     <t>复合</t>
   </si>
   <si>
@@ -62,12 +80,6 @@
     <t>草本优益1号</t>
   </si>
   <si>
-    <t>NH0100.NHF</t>
-  </si>
-  <si>
-    <t>南华商品指数</t>
-  </si>
-  <si>
     <t>草本致远1号</t>
   </si>
   <si>
@@ -77,15 +89,6 @@
     <t>南华农产品指数</t>
   </si>
   <si>
-    <t>趋势</t>
-  </si>
-  <si>
-    <t>SGC034</t>
-  </si>
-  <si>
-    <t>济海实恒对冲二号</t>
-  </si>
-  <si>
     <t>ST6571</t>
   </si>
   <si>
@@ -104,6 +107,24 @@
     <t>均成CTA1号</t>
   </si>
   <si>
+    <t>SW8015</t>
+  </si>
+  <si>
+    <t>旭诺CTA三号</t>
+  </si>
+  <si>
+    <t>平均25%</t>
+  </si>
+  <si>
+    <t>SN3221</t>
+  </si>
+  <si>
+    <t>宏锡量化CTA7号</t>
+  </si>
+  <si>
+    <t>20-30%</t>
+  </si>
+  <si>
     <t>SXF557</t>
   </si>
   <si>
@@ -122,34 +143,37 @@
     <t>弘源多元化CTA</t>
   </si>
   <si>
-    <t>SN3221</t>
-  </si>
-  <si>
-    <t>宏锡量化CTA7号</t>
-  </si>
-  <si>
     <t>SGA623</t>
   </si>
   <si>
     <t>会世元丰CTA1号</t>
   </si>
   <si>
+    <t>S83994</t>
+  </si>
+  <si>
+    <t>远澜云杉</t>
+  </si>
+  <si>
+    <t>复合偏截面</t>
+  </si>
+  <si>
     <t>SAET98</t>
   </si>
   <si>
     <t>量派CTA七号</t>
   </si>
   <si>
-    <t>S83994</t>
-  </si>
-  <si>
-    <t>远澜云杉</t>
-  </si>
-  <si>
-    <t>SW8015</t>
-  </si>
-  <si>
-    <t>旭诺CTA三号</t>
+    <t>10-15%</t>
+  </si>
+  <si>
+    <t>SZB647</t>
+  </si>
+  <si>
+    <t>安贤CTA量化一号</t>
+  </si>
+  <si>
+    <t>15%-25%</t>
   </si>
   <si>
     <t>套利</t>
@@ -167,6 +191,9 @@
     <t>中证综合债</t>
   </si>
   <si>
+    <t>主观套利</t>
+  </si>
+  <si>
     <t>CU345B</t>
   </si>
   <si>
@@ -176,7 +203,13 @@
     <t>期权</t>
   </si>
   <si>
+    <t>双卖</t>
+  </si>
+  <si>
     <t>国元期货安睿二号</t>
+  </si>
+  <si>
+    <t>波动率套利</t>
   </si>
   <si>
     <t>STB980</t>
@@ -195,9 +228,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -210,11 +257,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -664,28 +710,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,137 +731,163 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1174,434 +1237,479 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A12" sqref="A12:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="8.88333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.8833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.3333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.1083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.8833333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4">
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G7" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
+    <row r="13" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4">
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="H15" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="6">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4">
+    <row r="17" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="8">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="4">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="8">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="8">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="4">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="4">
-        <v>-0.03</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>大类策略</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>均成CTA1号</t>
+  </si>
+  <si>
+    <t>SVZ009</t>
+  </si>
+  <si>
+    <t>铭跃行远均衡一号</t>
+  </si>
+  <si>
+    <t>15-25%</t>
   </si>
   <si>
     <t>SW8015</t>
@@ -1237,10 +1246,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
@@ -1449,27 +1458,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="6">
-        <v>-0.03</v>
+      <c r="G9" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:7">
@@ -1480,10 +1492,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
@@ -1492,7 +1504,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="6">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:7">
@@ -1503,10 +1515,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="10" t="s">
         <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
@@ -1523,13 +1535,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
@@ -1538,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="6">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:7">
@@ -1549,10 +1561,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
@@ -1561,46 +1573,43 @@
         <v>13</v>
       </c>
       <c r="G13" s="6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8">
-        <v>-0.03</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:8">
+    <row r="15" ht="18.75" customHeight="1" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1610,77 +1619,79 @@
         <v>13</v>
       </c>
       <c r="G15" s="8">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="16.5" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="5" t="s">
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="6">
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="6">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="7" t="s">
+    <row r="18" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="8">
-        <v>-0.03</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G18" s="8">
         <v>-0.03</v>
@@ -1689,27 +1700,51 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A19" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G19" s="8">
         <v>-0.03</v>
       </c>
       <c r="H19" s="9"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="H20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -2,12 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
   <si>
     <t>大类策略</t>
   </si>
@@ -107,6 +108,117 @@
     <t>均成CTA1号</t>
   </si>
   <si>
+    <t>SW8015</t>
+  </si>
+  <si>
+    <t>旭诺CTA三号</t>
+  </si>
+  <si>
+    <t>平均25%</t>
+  </si>
+  <si>
+    <t>SN3221</t>
+  </si>
+  <si>
+    <t>宏锡量化CTA7号</t>
+  </si>
+  <si>
+    <t>20-30%</t>
+  </si>
+  <si>
+    <t>SXF557</t>
+  </si>
+  <si>
+    <t>千衍九凌1号</t>
+  </si>
+  <si>
+    <t>SCV067</t>
+  </si>
+  <si>
+    <t>众壹资产量合兴成一号</t>
+  </si>
+  <si>
+    <t>SLS182</t>
+  </si>
+  <si>
+    <t>弘源多元化CTA</t>
+  </si>
+  <si>
+    <t>SGA623</t>
+  </si>
+  <si>
+    <t>会世元丰CTA1号</t>
+  </si>
+  <si>
+    <t>S83994</t>
+  </si>
+  <si>
+    <t>远澜云杉</t>
+  </si>
+  <si>
+    <t>复合偏截面</t>
+  </si>
+  <si>
+    <t>SAET98</t>
+  </si>
+  <si>
+    <t>量派CTA七号</t>
+  </si>
+  <si>
+    <t>10-15%</t>
+  </si>
+  <si>
+    <t>SZB647</t>
+  </si>
+  <si>
+    <t>安贤CTA量化一号</t>
+  </si>
+  <si>
+    <t>15%-25%</t>
+  </si>
+  <si>
+    <t>套利</t>
+  </si>
+  <si>
+    <t>SS9088</t>
+  </si>
+  <si>
+    <t>远澜翠柏1号</t>
+  </si>
+  <si>
+    <t>H11009.CSI</t>
+  </si>
+  <si>
+    <t>中证综合债</t>
+  </si>
+  <si>
+    <t>主观套利</t>
+  </si>
+  <si>
+    <t>CU345B</t>
+  </si>
+  <si>
+    <t>旌安1号</t>
+  </si>
+  <si>
+    <t>期权</t>
+  </si>
+  <si>
+    <t>双卖</t>
+  </si>
+  <si>
+    <t>国元期货安睿二号</t>
+  </si>
+  <si>
+    <t>波动率套利</t>
+  </si>
+  <si>
+    <t>STB980</t>
+  </si>
+  <si>
+    <t>绰瑞汇海9号</t>
+  </si>
+  <si>
     <t>SVZ009</t>
   </si>
   <si>
@@ -114,117 +226,6 @@
   </si>
   <si>
     <t>15-25%</t>
-  </si>
-  <si>
-    <t>SW8015</t>
-  </si>
-  <si>
-    <t>旭诺CTA三号</t>
-  </si>
-  <si>
-    <t>平均25%</t>
-  </si>
-  <si>
-    <t>SN3221</t>
-  </si>
-  <si>
-    <t>宏锡量化CTA7号</t>
-  </si>
-  <si>
-    <t>20-30%</t>
-  </si>
-  <si>
-    <t>SXF557</t>
-  </si>
-  <si>
-    <t>千衍九凌1号</t>
-  </si>
-  <si>
-    <t>SCV067</t>
-  </si>
-  <si>
-    <t>众壹资产量合兴成一号</t>
-  </si>
-  <si>
-    <t>SLS182</t>
-  </si>
-  <si>
-    <t>弘源多元化CTA</t>
-  </si>
-  <si>
-    <t>SGA623</t>
-  </si>
-  <si>
-    <t>会世元丰CTA1号</t>
-  </si>
-  <si>
-    <t>S83994</t>
-  </si>
-  <si>
-    <t>远澜云杉</t>
-  </si>
-  <si>
-    <t>复合偏截面</t>
-  </si>
-  <si>
-    <t>SAET98</t>
-  </si>
-  <si>
-    <t>量派CTA七号</t>
-  </si>
-  <si>
-    <t>10-15%</t>
-  </si>
-  <si>
-    <t>SZB647</t>
-  </si>
-  <si>
-    <t>安贤CTA量化一号</t>
-  </si>
-  <si>
-    <t>15%-25%</t>
-  </si>
-  <si>
-    <t>套利</t>
-  </si>
-  <si>
-    <t>SS9088</t>
-  </si>
-  <si>
-    <t>远澜翠柏1号</t>
-  </si>
-  <si>
-    <t>H11009.CSI</t>
-  </si>
-  <si>
-    <t>中证综合债</t>
-  </si>
-  <si>
-    <t>主观套利</t>
-  </si>
-  <si>
-    <t>CU345B</t>
-  </si>
-  <si>
-    <t>旌安1号</t>
-  </si>
-  <si>
-    <t>期权</t>
-  </si>
-  <si>
-    <t>双卖</t>
-  </si>
-  <si>
-    <t>国元期货安睿二号</t>
-  </si>
-  <si>
-    <t>波动率套利</t>
-  </si>
-  <si>
-    <t>STB980</t>
-  </si>
-  <si>
-    <t>绰瑞汇海9号</t>
   </si>
 </sst>
 </file>
@@ -237,17 +238,10 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -268,6 +262,24 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -734,168 +746,177 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1243,189 +1264,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.3333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.1083333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.8833333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="7.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>-0.1</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>-0.05</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>-0.1</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>-0.05</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>-0.1</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="12">
         <v>-0.05</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -1433,25 +1454,25 @@
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="12">
         <v>-0.05</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -1459,295 +1480,351 @@
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12">
         <v>-0.05</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="D11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="H14" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:8">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="B15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G15" s="12">
         <v>-0.05</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="6">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="8">
-        <v>-0.03</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:8">
-      <c r="A16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>45</v>
+    <row r="16" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="B17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" s="8" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="8">
-        <v>-0.05</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="D18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="F18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" s="8" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="F19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="G19" s="12">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="8">
-        <v>-0.03</v>
-      </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="8">
-        <v>-0.03</v>
-      </c>
       <c r="H19" s="9"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="8">
-        <v>-0.03</v>
-      </c>
-      <c r="H20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
   <si>
     <t>大类策略</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>均成CTA1号</t>
+  </si>
+  <si>
+    <t>SAFG55</t>
+  </si>
+  <si>
+    <t>均成均享1号1期</t>
   </si>
   <si>
     <t>SW8015</t>
@@ -238,16 +244,9 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -261,6 +260,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -270,18 +275,25 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -731,193 +743,188 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1267,485 +1274,507 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="10" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.85833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.575" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.00833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.575" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2916666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.575" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>-0.1</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>-0.05</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>-0.1</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>-0.05</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A7" s="11" t="s">
+    <row r="7" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="10">
         <v>-0.05</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A8" s="11" t="s">
+      <c r="H8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="C9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="10">
         <v>-0.05</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A9" s="11" t="s">
+      <c r="H9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="10">
         <v>-0.03</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A10" s="11" t="s">
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="10">
         <v>-0.05</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A11" s="11" t="s">
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="10">
         <v>-0.05</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A12" s="11" t="s">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="10">
         <v>-0.1</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A13" s="11" t="s">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="C14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="10">
         <v>-0.05</v>
       </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A14" s="11" t="s">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="C15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="10">
         <v>-0.03</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:8">
-      <c r="A15" s="11" t="s">
+      <c r="H15" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="10">
         <v>-0.05</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="11" t="s">
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="B17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="12">
+      <c r="E17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="10">
         <v>-0.03</v>
       </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="F18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="G18" s="10">
+        <v>-0.03</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="12">
+      <c r="D19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="10">
         <v>-0.03</v>
       </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" s="8" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A18" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="B20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="10">
         <v>-0.03</v>
       </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" s="8" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A19" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="12">
-        <v>-0.03</v>
-      </c>
-      <c r="H19" s="9"/>
+      <c r="H20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1755,76 +1784,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2">
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="6.625" customWidth="1"/>
+    <col min="1" max="3" width="7.85833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.2916666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2916666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.575" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>-0.05</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>65</v>
+      <c r="H2" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>大类策略</t>
   </si>
@@ -223,6 +223,24 @@
   </si>
   <si>
     <t>绰瑞汇海9号</t>
+  </si>
+  <si>
+    <t>商品期权</t>
+  </si>
+  <si>
+    <t>SEL385</t>
+  </si>
+  <si>
+    <t>跃威稳进一号</t>
+  </si>
+  <si>
+    <t>股票期权</t>
+  </si>
+  <si>
+    <t>SLH988</t>
+  </si>
+  <si>
+    <t>跃威佳成一号</t>
   </si>
   <si>
     <t>SVZ009</t>
@@ -244,7 +262,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,16 +302,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -743,152 +754,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -917,14 +928,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1274,10 +1294,10 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1314,11 +1334,11 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:7">
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1340,8 +1360,9 @@
       <c r="G2" s="4">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:7">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1363,8 +1384,9 @@
       <c r="G3" s="4">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:7">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1386,8 +1408,9 @@
       <c r="G4" s="4">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:7">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1409,8 +1432,9 @@
       <c r="G5" s="4">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:7">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1432,8 +1456,9 @@
       <c r="G6" s="4">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:7">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1455,6 +1480,7 @@
       <c r="G7" s="4">
         <v>-0.1</v>
       </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="9" t="s">
@@ -1475,10 +1501,10 @@
       <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="11">
         <v>-0.05</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1501,10 +1527,10 @@
       <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="11">
         <v>-0.05</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1527,10 +1553,10 @@
       <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="11">
         <v>-0.03</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:8">
       <c r="A11" s="9" t="s">
@@ -1551,10 +1577,10 @@
       <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="11">
         <v>-0.05</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:8">
       <c r="A12" s="9" t="s">
@@ -1575,10 +1601,10 @@
       <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="11">
         <v>-0.05</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:8">
       <c r="A13" s="9" t="s">
@@ -1599,10 +1625,10 @@
       <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="11">
         <v>-0.1</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:8">
       <c r="A14" s="9" t="s">
@@ -1623,10 +1649,10 @@
       <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="11">
         <v>-0.05</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:8">
       <c r="A15" s="9" t="s">
@@ -1647,10 +1673,10 @@
       <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="11">
         <v>-0.03</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1673,10 +1699,10 @@
       <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="11">
         <v>-0.05</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1699,10 +1725,10 @@
       <c r="F17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="11">
         <v>-0.03</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:8">
       <c r="A18" s="9" t="s">
@@ -1723,10 +1749,10 @@
       <c r="F18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="11">
         <v>-0.03</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:8">
       <c r="A19" s="9" t="s">
@@ -1747,10 +1773,10 @@
       <c r="F19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="11">
         <v>-0.03</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:8">
       <c r="A20" s="9" t="s">
@@ -1771,12 +1797,63 @@
       <c r="F20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="11">
         <v>-0.03</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:8">
+      <c r="A21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:8">
+      <c r="A22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" display="SLH988" tooltip="https://gs.amac.org.cn/amac-infodisc/res/pof/fund/2007141900100782.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1837,10 +1914,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>12</v>
@@ -1852,7 +1929,7 @@
         <v>-0.05</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
   <si>
     <t>大类策略</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>旌安1号</t>
+  </si>
+  <si>
+    <t>多策略套利</t>
+  </si>
+  <si>
+    <t>SZH690</t>
+  </si>
+  <si>
+    <t>辰元优选稳健</t>
   </si>
   <si>
     <t>期权</t>
@@ -256,11 +265,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -899,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,25 +935,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1294,565 +1311,590 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.85833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.575" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.00833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.575" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2916666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.575" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="13">
         <v>-0.1</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="13">
         <v>-0.05</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="13">
         <v>-0.1</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="13">
         <v>-0.05</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="13">
         <v>-0.1</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="13">
         <v>-0.1</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="15">
         <v>-0.05</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="15">
         <v>-0.05</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="15">
         <v>-0.03</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="15">
         <v>-0.05</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="15">
         <v>-0.05</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="15">
         <v>-0.1</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="15">
         <v>-0.05</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="15">
         <v>-0.03</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="15">
         <v>-0.05</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="15">
         <v>-0.03</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="15">
         <v>-0.03</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="15">
+        <v>-0.03</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="15">
         <v>-0.03</v>
       </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="B21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="15">
         <v>-0.03</v>
       </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:8">
-      <c r="A21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:8">
+      <c r="A22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="15">
         <v>-0.03</v>
       </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:8">
-      <c r="A22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:8">
+      <c r="A23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="15">
         <v>-0.03</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H23" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" display="SLH988" tooltip="https://gs.amac.org.cn/amac-infodisc/res/pof/fund/2007141900100782.html"/>
+    <hyperlink ref="C23" r:id="rId1" display="SLH988" tooltip="https://gs.amac.org.cn/amac-infodisc/res/pof/fund/2007141900100782.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1914,10 +1956,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>12</v>
@@ -1929,7 +1971,7 @@
         <v>-0.05</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>大类策略</t>
   </si>
@@ -51,9 +50,6 @@
     <t>最大回撤阈值</t>
   </si>
   <si>
-    <t>产品编码</t>
-  </si>
-  <si>
     <t>杠杆率</t>
   </si>
   <si>
@@ -75,9 +71,6 @@
     <t>南华商品指数</t>
   </si>
   <si>
-    <t>f71606d12628209b</t>
-  </si>
-  <si>
     <t>复合</t>
   </si>
   <si>
@@ -87,9 +80,6 @@
     <t>草本优益1号</t>
   </si>
   <si>
-    <t>6245b350771b4453</t>
-  </si>
-  <si>
     <t>草本致远1号</t>
   </si>
   <si>
@@ -99,18 +89,12 @@
     <t>南华农产品指数</t>
   </si>
   <si>
-    <t>eedeec4ef4c4bcb8</t>
-  </si>
-  <si>
     <t>ST6571</t>
   </si>
   <si>
     <t>星恒哲萌1号</t>
   </si>
   <si>
-    <t>32fae234e4cbc07e</t>
-  </si>
-  <si>
     <t>量化CTA</t>
   </si>
   <si>
@@ -123,18 +107,12 @@
     <t>均成CTA1号</t>
   </si>
   <si>
-    <t>50ff29790285872a</t>
-  </si>
-  <si>
     <t>SW8015</t>
   </si>
   <si>
     <t>旭诺CTA三号</t>
   </si>
   <si>
-    <t>356980681980e9c0</t>
-  </si>
-  <si>
     <t>平均25%</t>
   </si>
   <si>
@@ -144,9 +122,6 @@
     <t>宏锡量化CTA7号</t>
   </si>
   <si>
-    <t>0f8c4f74ae0825fb</t>
-  </si>
-  <si>
     <t>20-30%</t>
   </si>
   <si>
@@ -156,45 +131,30 @@
     <t>千衍九凌1号</t>
   </si>
   <si>
-    <t>8da568d34b93d978</t>
-  </si>
-  <si>
     <t>SCV067</t>
   </si>
   <si>
     <t>众壹资产量合兴成一号</t>
   </si>
   <si>
-    <t>2b681353788d51c3</t>
-  </si>
-  <si>
     <t>SLS182</t>
   </si>
   <si>
     <t>弘源多元化CTA</t>
   </si>
   <si>
-    <t>14fa4cefd0a29399</t>
-  </si>
-  <si>
     <t>SGA623</t>
   </si>
   <si>
     <t>会世元丰CTA1号</t>
   </si>
   <si>
-    <t>03258472ec85918b</t>
-  </si>
-  <si>
     <t>S83994</t>
   </si>
   <si>
     <t>远澜云杉</t>
   </si>
   <si>
-    <t>c9673a8a61dedcf9</t>
-  </si>
-  <si>
     <t>复合偏截面</t>
   </si>
   <si>
@@ -204,9 +164,6 @@
     <t>量派CTA七号</t>
   </si>
   <si>
-    <t>330aad5b2fdb3019</t>
-  </si>
-  <si>
     <t>10-15%</t>
   </si>
   <si>
@@ -216,9 +173,6 @@
     <t>安贤CTA量化一号</t>
   </si>
   <si>
-    <t>2dbf6a1532009eef</t>
-  </si>
-  <si>
     <t>15%-25%</t>
   </si>
   <si>
@@ -237,9 +191,6 @@
     <t>中证综合债</t>
   </si>
   <si>
-    <t>be6872d6063d88a3</t>
-  </si>
-  <si>
     <t>主观套利</t>
   </si>
   <si>
@@ -249,9 +200,6 @@
     <t>旌安1号</t>
   </si>
   <si>
-    <t>39689aa755f6f89d</t>
-  </si>
-  <si>
     <t>多策略套利</t>
   </si>
   <si>
@@ -261,18 +209,12 @@
     <t>辰元优选稳健</t>
   </si>
   <si>
-    <t>3712ae883b81c7b6</t>
-  </si>
-  <si>
     <t>SGM512</t>
   </si>
   <si>
     <t>殊馥馥源套利1号</t>
   </si>
   <si>
-    <t>7d1044d0dd00c1bd</t>
-  </si>
-  <si>
     <t>期权</t>
   </si>
   <si>
@@ -282,9 +224,6 @@
     <t>国元期货安睿二号</t>
   </si>
   <si>
-    <t>f3e6566da1637732</t>
-  </si>
-  <si>
     <t>波动率套利</t>
   </si>
   <si>
@@ -294,9 +233,6 @@
     <t>绰瑞汇海9号</t>
   </si>
   <si>
-    <t>02526081e5b917f7</t>
-  </si>
-  <si>
     <t>商品期权</t>
   </si>
   <si>
@@ -306,9 +242,6 @@
     <t>跃威稳进一号</t>
   </si>
   <si>
-    <t>f6292a64fcaedc93</t>
-  </si>
-  <si>
     <t>股票期权</t>
   </si>
   <si>
@@ -316,18 +249,6 @@
   </si>
   <si>
     <t>跃威佳成一号</t>
-  </si>
-  <si>
-    <t>5bb0c10fa3734c94</t>
-  </si>
-  <si>
-    <t>SVZ009</t>
-  </si>
-  <si>
-    <t>铭跃行远均衡一号</t>
-  </si>
-  <si>
-    <t>15-25%</t>
   </si>
 </sst>
 </file>
@@ -340,7 +261,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,37 +272,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -856,137 +746,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -995,36 +885,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,13 +1244,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
@@ -1390,667 +1259,7 @@
     <col min="5" max="5" width="10.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-0.03</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-0.03</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-0.03</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-0.03</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-0.03</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-0.03</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A20" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-0.03</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-0.03</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-0.03</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-0.03</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet2">
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="3" width="7.85833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.2916666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2916666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.575" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
@@ -2075,35 +1284,545 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G7" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7">
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4">
         <v>-0.05</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="H23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
   <si>
     <t>大类策略</t>
   </si>
@@ -94,6 +94,12 @@
     <t>均成CTA1号</t>
   </si>
   <si>
+    <t>SD8726</t>
+  </si>
+  <si>
+    <t>黑翼CTA三号</t>
+  </si>
+  <si>
     <t>SW8015</t>
   </si>
   <si>
@@ -101,15 +107,6 @@
   </si>
   <si>
     <t>平均25%</t>
-  </si>
-  <si>
-    <t>SN3221</t>
-  </si>
-  <si>
-    <t>宏锡量化CTA7号</t>
-  </si>
-  <si>
-    <t>20-30%</t>
   </si>
   <si>
     <t>SXF557</t>
@@ -234,7 +231,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +243,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -276,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +289,12 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,14 +610,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="7.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -779,9 +788,7 @@
       <c r="G7" s="2">
         <v>-0.05</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
@@ -791,10 +798,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -806,7 +813,7 @@
         <v>-0.05</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -817,10 +824,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -833,7 +840,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -841,10 +848,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -865,10 +872,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -889,10 +896,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -913,10 +920,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -934,13 +941,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -952,7 +959,7 @@
         <v>-0.03</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -960,13 +967,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
@@ -978,27 +985,27 @@
         <v>-0.05</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G16" s="2">
         <v>-0.03</v>
@@ -1007,22 +1014,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G17" s="2">
         <v>-0.03</v>
@@ -1031,22 +1038,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G18" s="2">
         <v>-0.03</v>
@@ -1055,22 +1062,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G19" s="2">
         <v>-0.03</v>
@@ -1079,22 +1086,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G20" s="2">
         <v>-0.03</v>
@@ -1103,51 +1110,51 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G21" s="2">
         <v>-0.03</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
+      <c r="A22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>-0.03</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>大类策略</t>
   </si>
@@ -188,42 +188,6 @@
   </si>
   <si>
     <t>殊馥馥源套利1号</t>
-  </si>
-  <si>
-    <t>期权</t>
-  </si>
-  <si>
-    <t>双卖</t>
-  </si>
-  <si>
-    <t>国元期货安睿二号</t>
-  </si>
-  <si>
-    <t>波动率套利</t>
-  </si>
-  <si>
-    <t>STB980</t>
-  </si>
-  <si>
-    <t>绰瑞汇海9号</t>
-  </si>
-  <si>
-    <t>商品期权</t>
-  </si>
-  <si>
-    <t>SEL385</t>
-  </si>
-  <si>
-    <t>跃威稳进一号</t>
-  </si>
-  <si>
-    <t>股票期权</t>
-  </si>
-  <si>
-    <t>SLH988</t>
-  </si>
-  <si>
-    <t>跃威佳成一号</t>
   </si>
 </sst>
 </file>
@@ -231,7 +195,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,12 +207,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -279,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,12 +247,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,20 +556,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="7.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -840,7 +792,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1059,102 +1011,6 @@
         <v>-0.03</v>
       </c>
       <c r="H18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
-      <c r="A22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="5">
-        <v>-0.03</v>
-      </c>
-      <c r="H22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>大类策略</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>平均25%</t>
-  </si>
-  <si>
-    <t>SXF557</t>
-  </si>
-  <si>
-    <t>千衍九凌1号</t>
   </si>
   <si>
     <t>SCV067</t>
@@ -556,7 +550,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -788,7 +782,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -821,7 +815,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -836,7 +830,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -860,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -869,13 +863,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -884,22 +878,24 @@
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -908,56 +904,54 @@
         <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>-0.03</v>
+      </c>
+      <c r="H15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G16" s="2">
         <v>-0.03</v>
@@ -966,10 +960,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>54</v>
@@ -978,39 +972,15 @@
         <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2">
         <v>-0.03</v>
       </c>
       <c r="H17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="H18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -79,7 +79,7 @@
     <t>ST6571</t>
   </si>
   <si>
-    <t>星恒哲萌1号</t>
+    <t>哲萌1号</t>
   </si>
   <si>
     <t>量化CTA</t>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>大类策略</t>
   </si>
@@ -61,12 +61,15 @@
     <t>复合</t>
   </si>
   <si>
-    <t>SM6151</t>
+    <t>SEM760</t>
   </si>
   <si>
     <t>草本优益1号</t>
   </si>
   <si>
+    <t>SND951</t>
+  </si>
+  <si>
     <t>草本致远1号</t>
   </si>
   <si>
@@ -76,6 +79,12 @@
     <t>南华农产品指数</t>
   </si>
   <si>
+    <t>SQA043</t>
+  </si>
+  <si>
+    <t>星恒哲萌1号</t>
+  </si>
+  <si>
     <t>ST6571</t>
   </si>
   <si>
@@ -94,66 +103,78 @@
     <t>均成CTA1号</t>
   </si>
   <si>
+    <t>SLS182</t>
+  </si>
+  <si>
+    <t>弘源多元化CTA</t>
+  </si>
+  <si>
+    <t>SCV067</t>
+  </si>
+  <si>
+    <t>众壹资产量合兴成一号</t>
+  </si>
+  <si>
+    <t>SGP516</t>
+  </si>
+  <si>
+    <t>旭诺CTA三号</t>
+  </si>
+  <si>
+    <t>平均25%</t>
+  </si>
+  <si>
+    <t>XF557B</t>
+  </si>
+  <si>
+    <t>千衍九凌1号B类</t>
+  </si>
+  <si>
+    <t>复合偏截面</t>
+  </si>
+  <si>
+    <t>SZC678</t>
+  </si>
+  <si>
+    <t>量派CTA七号</t>
+  </si>
+  <si>
+    <t>10-15%</t>
+  </si>
+  <si>
+    <t>S83994</t>
+  </si>
+  <si>
+    <t>远澜云杉</t>
+  </si>
+  <si>
+    <t>SEC905</t>
+  </si>
+  <si>
+    <t>会世元丰CTA1号</t>
+  </si>
+  <si>
+    <t>SZB647</t>
+  </si>
+  <si>
+    <t>安贤CTA量化一号</t>
+  </si>
+  <si>
+    <t>15%-25%</t>
+  </si>
+  <si>
+    <t>SEX635</t>
+  </si>
+  <si>
+    <t>文谛量化优选三号</t>
+  </si>
+  <si>
     <t>SD8726</t>
   </si>
   <si>
     <t>黑翼CTA三号</t>
   </si>
   <si>
-    <t>SW8015</t>
-  </si>
-  <si>
-    <t>旭诺CTA三号</t>
-  </si>
-  <si>
-    <t>平均25%</t>
-  </si>
-  <si>
-    <t>SCV067</t>
-  </si>
-  <si>
-    <t>众壹资产量合兴成一号</t>
-  </si>
-  <si>
-    <t>SLS182</t>
-  </si>
-  <si>
-    <t>弘源多元化CTA</t>
-  </si>
-  <si>
-    <t>SGA623</t>
-  </si>
-  <si>
-    <t>会世元丰CTA1号</t>
-  </si>
-  <si>
-    <t>S83994</t>
-  </si>
-  <si>
-    <t>远澜云杉</t>
-  </si>
-  <si>
-    <t>复合偏截面</t>
-  </si>
-  <si>
-    <t>SAET98</t>
-  </si>
-  <si>
-    <t>量派CTA七号</t>
-  </si>
-  <si>
-    <t>10-15%</t>
-  </si>
-  <si>
-    <t>SZB647</t>
-  </si>
-  <si>
-    <t>安贤CTA量化一号</t>
-  </si>
-  <si>
-    <t>15%-25%</t>
-  </si>
-  <si>
     <t>套利</t>
   </si>
   <si>
@@ -172,16 +193,10 @@
     <t>主观套利</t>
   </si>
   <si>
-    <t>CU345B</t>
+    <t>SCU345</t>
   </si>
   <si>
     <t>旌安1号</t>
-  </si>
-  <si>
-    <t>SGM512</t>
-  </si>
-  <si>
-    <t>殊馥馥源套利1号</t>
   </si>
 </sst>
 </file>
@@ -189,7 +204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +216,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -231,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,6 +262,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,20 +574,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="7.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -648,16 +672,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
         <v>-0.1</v>
@@ -672,10 +696,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -690,17 +714,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -708,22 +732,22 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -732,22 +756,22 @@
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -758,13 +782,11 @@
       <c r="G8" s="2">
         <v>-0.05</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -788,7 +810,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -796,7 +818,7 @@
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -808,21 +830,23 @@
       <c r="G10" s="2">
         <v>-0.05</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
@@ -830,22 +854,22 @@
         <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -854,22 +878,24 @@
         <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -878,24 +904,22 @@
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>-0.05</v>
+      </c>
+      <c r="H13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -904,83 +928,131 @@
         <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>-0.1</v>
+      </c>
+      <c r="H14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="H15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="2">
         <v>-0.03</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>大类策略</t>
   </si>
@@ -169,10 +169,16 @@
     <t>旌安1号</t>
   </si>
   <si>
-    <t>ST6571</t>
-  </si>
-  <si>
-    <t>哲萌1号</t>
+    <t>SQA043</t>
+  </si>
+  <si>
+    <t>星恒哲萌1号</t>
+  </si>
+  <si>
+    <t>SAAJ33</t>
+  </si>
+  <si>
+    <t>唯瞻五号</t>
   </si>
   <si>
     <t>量化套利</t>
@@ -204,9 +210,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -237,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,22 +251,13 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -571,19 +568,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -656,25 +653,25 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>-0.03</v>
       </c>
     </row>
@@ -711,7 +708,7 @@
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -777,10 +774,10 @@
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -803,7 +800,7 @@
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -840,25 +837,25 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
         <v>-0.05</v>
       </c>
     </row>
@@ -895,7 +892,7 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -978,25 +975,48 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="5">
         <v>-0.03</v>
       </c>
     </row>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>大类策略</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>安贤CTA量化一号</t>
+  </si>
+  <si>
+    <t>SEA420</t>
+  </si>
+  <si>
+    <t>东海龙王一号</t>
   </si>
   <si>
     <t>套利</t>
@@ -568,7 +574,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -930,33 +936,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>51</v>
@@ -965,21 +971,21 @@
         <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>53</v>
@@ -997,26 +1003,49 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
-      <c r="A19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <v>-0.03</v>
       </c>
     </row>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
   <si>
     <t>大类策略</t>
   </si>
@@ -67,9 +67,120 @@
     <t>南华农产品指数</t>
   </si>
   <si>
+    <t>量化CTA</t>
+  </si>
+  <si>
     <t>时序</t>
   </si>
   <si>
+    <t>ACG52B</t>
+  </si>
+  <si>
+    <t>千衍六贞1号B类</t>
+  </si>
+  <si>
+    <t>STW548</t>
+  </si>
+  <si>
+    <t>细水居20号</t>
+  </si>
+  <si>
+    <t>截面</t>
+  </si>
+  <si>
+    <t>SS0221</t>
+  </si>
+  <si>
+    <t>均成CTA1号</t>
+  </si>
+  <si>
+    <t>SEC905</t>
+  </si>
+  <si>
+    <t>会世元丰CTA1号</t>
+  </si>
+  <si>
+    <t>ST4277</t>
+  </si>
+  <si>
+    <t>千象15期</t>
+  </si>
+  <si>
+    <t>复合偏截面</t>
+  </si>
+  <si>
+    <t>SZB647</t>
+  </si>
+  <si>
+    <t>安贤CTA量化一号</t>
+  </si>
+  <si>
+    <t>SZC678</t>
+  </si>
+  <si>
+    <t>量派CTA七号</t>
+  </si>
+  <si>
+    <t>SANE63</t>
+  </si>
+  <si>
+    <t>铭跃行远均衡专享十三号</t>
+  </si>
+  <si>
+    <t>SEX635</t>
+  </si>
+  <si>
+    <t>文谛量化优选三号</t>
+  </si>
+  <si>
+    <t>S83994</t>
+  </si>
+  <si>
+    <t>远澜云杉</t>
+  </si>
+  <si>
+    <t>SEA420</t>
+  </si>
+  <si>
+    <t>东海龙王一号</t>
+  </si>
+  <si>
+    <t>SACZ96</t>
+  </si>
+  <si>
+    <t>黑翼CTA28号1期</t>
+  </si>
+  <si>
+    <t>SCV067</t>
+  </si>
+  <si>
+    <t>众壹资产量合兴成一号</t>
+  </si>
+  <si>
+    <t>SLS182</t>
+  </si>
+  <si>
+    <t>弘源多元化CTA</t>
+  </si>
+  <si>
+    <t>SAPG52</t>
+  </si>
+  <si>
+    <t>简雍斯量先锋</t>
+  </si>
+  <si>
+    <t>SXP468</t>
+  </si>
+  <si>
+    <t>闻道稳健2号</t>
+  </si>
+  <si>
+    <t>SGP516</t>
+  </si>
+  <si>
+    <t>旭诺CTA三号</t>
+  </si>
+  <si>
     <t>SEQ456</t>
   </si>
   <si>
@@ -82,87 +193,6 @@
     <t>中证综合债</t>
   </si>
   <si>
-    <t>量化CTA</t>
-  </si>
-  <si>
-    <t>截面</t>
-  </si>
-  <si>
-    <t>SS0221</t>
-  </si>
-  <si>
-    <t>均成CTA1号</t>
-  </si>
-  <si>
-    <t>SLS182</t>
-  </si>
-  <si>
-    <t>弘源多元化CTA</t>
-  </si>
-  <si>
-    <t>SCV067</t>
-  </si>
-  <si>
-    <t>众壹资产量合兴成一号</t>
-  </si>
-  <si>
-    <t>SGP516</t>
-  </si>
-  <si>
-    <t>旭诺CTA三号</t>
-  </si>
-  <si>
-    <t>ACG52B</t>
-  </si>
-  <si>
-    <t>千衍六贞1号B类</t>
-  </si>
-  <si>
-    <t>SEC905</t>
-  </si>
-  <si>
-    <t>会世元丰CTA1号</t>
-  </si>
-  <si>
-    <t>SAPG52</t>
-  </si>
-  <si>
-    <t>简雍斯量先锋</t>
-  </si>
-  <si>
-    <t>S83994</t>
-  </si>
-  <si>
-    <t>远澜云杉</t>
-  </si>
-  <si>
-    <t>SEX635</t>
-  </si>
-  <si>
-    <t>文谛量化优选三号</t>
-  </si>
-  <si>
-    <t>复合偏截面</t>
-  </si>
-  <si>
-    <t>SZC678</t>
-  </si>
-  <si>
-    <t>量派CTA七号</t>
-  </si>
-  <si>
-    <t>SZB647</t>
-  </si>
-  <si>
-    <t>安贤CTA量化一号</t>
-  </si>
-  <si>
-    <t>SEA420</t>
-  </si>
-  <si>
-    <t>东海龙王一号</t>
-  </si>
-  <si>
     <t>套利</t>
   </si>
   <si>
@@ -175,12 +205,24 @@
     <t>旌安1号</t>
   </si>
   <si>
+    <t>SZX748</t>
+  </si>
+  <si>
+    <t>金和和善对冲5号</t>
+  </si>
+  <si>
     <t>SQA043</t>
   </si>
   <si>
     <t>星恒哲萌1号</t>
   </si>
   <si>
+    <t>AHS76B</t>
+  </si>
+  <si>
+    <t>博普安兴私享一号B类</t>
+  </si>
+  <si>
     <t>SAAJ33</t>
   </si>
   <si>
@@ -194,6 +236,9 @@
   </si>
   <si>
     <t>远澜翠柏1号</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -249,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,6 +309,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -574,19 +628,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -660,40 +714,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -701,21 +755,21 @@
         <v>12</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -724,21 +778,21 @@
         <v>12</v>
       </c>
       <c r="G6" s="2">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -747,21 +801,21 @@
         <v>12</v>
       </c>
       <c r="G7" s="2">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -770,21 +824,21 @@
         <v>12</v>
       </c>
       <c r="G8" s="2">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -798,17 +852,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
@@ -816,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="G10" s="2">
-        <v>-0.1</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
@@ -839,21 +893,21 @@
         <v>12</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -867,16 +921,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -890,17 +944,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,21 +962,21 @@
         <v>12</v>
       </c>
       <c r="G14" s="2">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
@@ -936,16 +990,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
@@ -959,39 +1013,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G17" s="2">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
@@ -1005,49 +1059,357 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
-      <c r="A20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="F21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="G21" s="2">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="2">
         <v>-0.03</v>
       </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="5">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21">
+      <c r="A34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yueku\Desktop\VScode\Private_nav_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F34DAC9-FD0F-4D9C-95A9-A87250392497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E4B97-18A9-4488-B2BA-177B9082A5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="81">
   <si>
     <t>大类策略</t>
   </si>
@@ -252,6 +252,22 @@
   </si>
   <si>
     <t>SN3221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱凡哲睿哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJW556</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎一兑弈量化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGD080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +311,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -344,13 +366,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,21 +683,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -742,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -971,31 +996,31 @@
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>-0.05</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="3">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1003,13 +1028,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1018,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="3">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1029,10 +1054,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1041,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="3">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1049,13 +1074,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -1075,10 +1100,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -1087,7 +1112,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1098,10 +1123,10 @@
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -1110,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="3">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1118,13 +1143,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -1144,10 +1169,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -1161,25 +1186,25 @@
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G22" s="3">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1190,10 +1215,10 @@
         <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -1213,10 +1238,10 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -1236,19 +1261,19 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G25" s="3">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1259,19 +1284,19 @@
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-0.05</v>
+      <c r="F26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="11">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1282,19 +1307,19 @@
         <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-0.05</v>
+      <c r="F27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="11">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1302,65 +1327,69 @@
         <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="11">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="3"/>
-    </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="3"/>
+      <c r="A30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="6">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
@@ -1446,7 +1475,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>74</v>
       </c>
@@ -1466,6 +1495,27 @@
         <v>74</v>
       </c>
       <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -73,10 +73,10 @@
     <t>时序</t>
   </si>
   <si>
-    <t>ACG52B</t>
-  </si>
-  <si>
-    <t>千衍六贞1号B类</t>
+    <t>SACG52</t>
+  </si>
+  <si>
+    <t>千衍六贞1号</t>
   </si>
   <si>
     <t>STW548</t>
@@ -262,7 +262,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,12 +279,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFff0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
     </font>
@@ -316,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,12 +322,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -653,13 +641,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1253,10 +1241,10 @@
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="2">
         <v>-0.03</v>
       </c>
     </row>
@@ -1276,10 +1264,10 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="2">
         <v>-0.03</v>
       </c>
     </row>
@@ -1299,10 +1287,10 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="2">
         <v>-0.03</v>
       </c>
     </row>
@@ -1348,7 +1336,7 @@
       <c r="F30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="5">
         <v>-0.03</v>
       </c>
     </row>

--- a/产品目录.xlsx
+++ b/产品目录.xlsx
@@ -170,10 +170,11 @@
     <t>安贤CTA量化一号</t>
   </si>
   <si>
-    <t>SZC678</t>
-  </si>
-  <si>
-    <t>量派CTA七号</t>
+    <t xml:space="preserve">SAET98
+</t>
+  </si>
+  <si>
+    <t>量派CTA一号</t>
   </si>
   <si>
     <t>SANE63</t>
